--- a/output_reports/Втулка_01.01-01.02.xlsx
+++ b/output_reports/Втулка_01.01-01.02.xlsx
@@ -754,42 +754,40 @@
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>160</v>
+        <v>410</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>126</v>
+        <v>285</v>
       </c>
       <c r="L7" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="S7" s="5" t="inlineStr"/>
-      <c r="T7" s="6" t="n">
-        <v>372</v>
-      </c>
+      <c r="T7" s="6" t="n"/>
       <c r="U7" s="6" t="n"/>
       <c r="V7" s="4" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">

--- a/output_reports/Втулка_01.01-01.02.xlsx
+++ b/output_reports/Втулка_01.01-01.02.xlsx
@@ -16,9 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="# ##0"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <name val="Calibri"/>
@@ -92,25 +90,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -480,407 +461,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col hidden="1" outlineLevel="1" width="9" customWidth="1" min="1" max="4"/>
-    <col width="90" customWidth="1" min="5" max="5"/>
-    <col hidden="1" outlineLevel="1" width="7.5" customWidth="1" min="6" max="8"/>
-    <col width="8.25" customWidth="1" min="9" max="9"/>
-    <col width="8.25" customWidth="1" min="10" max="10"/>
-    <col width="8.25" customWidth="1" min="11" max="11"/>
-    <col width="8.25" customWidth="1" min="12" max="12"/>
-    <col width="8.25" customWidth="1" min="13" max="13"/>
-    <col width="8.25" customWidth="1" min="14" max="14"/>
-    <col width="8.25" customWidth="1" min="15" max="15"/>
-    <col width="8.25" customWidth="1" min="16" max="16"/>
-    <col width="8.25" customWidth="1" min="17" max="17"/>
-    <col width="8.25" customWidth="1" min="18" max="18"/>
-    <col width="20" customWidth="1" min="19" max="19"/>
-    <col width="20" customWidth="1" min="20" max="20"/>
-    <col width="20" customWidth="1" min="21" max="21"/>
-    <col width="20" customWidth="1" min="22" max="22"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Конец периода: 01.01.2023 23:59:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>Начало периода: 01.02.2023 00:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Тип</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>Линейка</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>Система</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>Разм</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>Номенклатура</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>Арх ном</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>Арх кат</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>Карт кат</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>Итого</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="n"/>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>ОСНОВНЫЕ СКЛАДЫ</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="n"/>
-      <c r="M4" s="2" t="n"/>
-      <c r="N4" s="2" t="n"/>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>ПРОЧИЕ СКЛАДЫ</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="n"/>
-      <c r="Q4" s="2" t="n"/>
-      <c r="R4" s="2" t="n"/>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>ПЛАН</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>Произведено / неоприходовано</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>Непроизведено / в плане</t>
-        </is>
-      </c>
-      <c r="V4" s="2" t="inlineStr">
-        <is>
-          <t>Неотгружено по опт. заявкам</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n"/>
-      <c r="B5" s="2" t="n"/>
-      <c r="C5" s="2" t="n"/>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n"/>
-      <c r="G5" s="2" t="n"/>
-      <c r="H5" s="2" t="n"/>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>Остаток</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>Расход общий</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>ОСТ</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="n"/>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>РАСХ</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="n"/>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>ОСТ</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="n"/>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>РАСХ</t>
-        </is>
-      </c>
-      <c r="R5" s="2" t="n"/>
-      <c r="S5" s="2" t="n"/>
-      <c r="T5" s="2" t="n"/>
-      <c r="U5" s="2" t="n"/>
-      <c r="V5" s="2" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n"/>
-      <c r="B6" s="2" t="n"/>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
-      <c r="G6" s="2" t="n"/>
-      <c r="H6" s="2" t="n"/>
-      <c r="I6" s="2" t="n"/>
-      <c r="J6" s="2" t="n"/>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>ИЗД</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>К/Т</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>ИЗД</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>К/Т</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>ИЗД</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>К/Т</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>ИЗД</t>
-        </is>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>К/Т</t>
-        </is>
-      </c>
-      <c r="S6" s="2" t="n"/>
-      <c r="T6" s="2" t="n"/>
-      <c r="U6" s="2" t="n"/>
-      <c r="V6" s="2" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>Втулка</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>Разработка Lenmiriot</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>Не требуется</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>35100 Втулка к хирургическому шаблону d=2.0 v.2</t>
-        </is>
-      </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G7" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H7" s="3" t="inlineStr">
-        <is>
-          <t>Версия 2</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>410</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>106</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>285</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>125</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>33</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>51</v>
-      </c>
-      <c r="S7" s="5" t="inlineStr"/>
-      <c r="T7" s="6" t="n"/>
-      <c r="U7" s="6" t="n"/>
-      <c r="V7" s="4" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n"/>
-      <c r="B8" s="2" t="n"/>
-      <c r="C8" s="2" t="n"/>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>Итого</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="n"/>
-      <c r="G8" s="2" t="n"/>
-      <c r="H8" s="2" t="n"/>
-      <c r="I8" s="7">
-        <f>SUM(I7:I7)</f>
-        <v/>
-      </c>
-      <c r="J8" s="7">
-        <f>SUM(J7:J7)</f>
-        <v/>
-      </c>
-      <c r="K8" s="7">
-        <f>SUM(K7:K7)</f>
-        <v/>
-      </c>
-      <c r="L8" s="7">
-        <f>SUM(L7:L7)</f>
-        <v/>
-      </c>
-      <c r="M8" s="7">
-        <f>SUM(M7:M7)</f>
-        <v/>
-      </c>
-      <c r="N8" s="7">
-        <f>SUM(N7:N7)</f>
-        <v/>
-      </c>
-      <c r="O8" s="7">
-        <f>SUM(O7:O7)</f>
-        <v/>
-      </c>
-      <c r="P8" s="7">
-        <f>SUM(P7:P7)</f>
-        <v/>
-      </c>
-      <c r="Q8" s="7">
-        <f>SUM(Q7:Q7)</f>
-        <v/>
-      </c>
-      <c r="R8" s="7">
-        <f>SUM(R7:R7)</f>
-        <v/>
-      </c>
-      <c r="S8" s="2" t="n"/>
-      <c r="T8" s="7">
-        <f>SUM(T7:T7)</f>
-        <v/>
-      </c>
-      <c r="U8" s="7">
-        <f>SUM(U7:U7)</f>
-        <v/>
-      </c>
-      <c r="V8" s="7">
-        <f>SUM(V7:V7)</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="T4:T6"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="Q5:R5"/>
-  </mergeCells>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/output_reports/Втулка_01.01-01.02.xlsx
+++ b/output_reports/Втулка_01.01-01.02.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="# ##0"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <name val="Calibri"/>
@@ -90,8 +92,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -461,14 +480,407 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col hidden="1" outlineLevel="1" width="9" customWidth="1" min="1" max="4"/>
+    <col width="90" customWidth="1" min="5" max="5"/>
+    <col hidden="1" outlineLevel="1" width="7.5" customWidth="1" min="6" max="8"/>
+    <col width="8.25" customWidth="1" min="9" max="9"/>
+    <col width="8.25" customWidth="1" min="10" max="10"/>
+    <col width="8.25" customWidth="1" min="11" max="11"/>
+    <col width="8.25" customWidth="1" min="12" max="12"/>
+    <col width="8.25" customWidth="1" min="13" max="13"/>
+    <col width="8.25" customWidth="1" min="14" max="14"/>
+    <col width="8.25" customWidth="1" min="15" max="15"/>
+    <col width="8.25" customWidth="1" min="16" max="16"/>
+    <col width="8.25" customWidth="1" min="17" max="17"/>
+    <col width="8.25" customWidth="1" min="18" max="18"/>
+    <col width="20" customWidth="1" min="19" max="19"/>
+    <col width="20" customWidth="1" min="20" max="20"/>
+    <col width="20" customWidth="1" min="21" max="21"/>
+    <col width="20" customWidth="1" min="22" max="22"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Конец периода: 01.01.2023 23:59:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>Начало периода: 01.02.2023 00:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Тип</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Линейка</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Система</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Разм</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>Номенклатура</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>Арх ном</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>Арх кат</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>Карт кат</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>Итого</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="n"/>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>ОСНОВНЫЕ СКЛАДЫ</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="n"/>
+      <c r="M4" s="2" t="n"/>
+      <c r="N4" s="2" t="n"/>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>ПРОЧИЕ СКЛАДЫ</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="n"/>
+      <c r="Q4" s="2" t="n"/>
+      <c r="R4" s="2" t="n"/>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>ПЛАН</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>Произведено / неоприходовано</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>Непроизведено / в плане</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>Неотгружено по опт. заявкам</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n"/>
+      <c r="B5" s="2" t="n"/>
+      <c r="C5" s="2" t="n"/>
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="2" t="n"/>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="2" t="n"/>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>Остаток</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>Расход общий</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>ОСТ</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="n"/>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>РАСХ</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="n"/>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>ОСТ</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="n"/>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>РАСХ</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="n"/>
+      <c r="S5" s="2" t="n"/>
+      <c r="T5" s="2" t="n"/>
+      <c r="U5" s="2" t="n"/>
+      <c r="V5" s="2" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n"/>
+      <c r="B6" s="2" t="n"/>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n"/>
+      <c r="E6" s="2" t="n"/>
+      <c r="F6" s="2" t="n"/>
+      <c r="G6" s="2" t="n"/>
+      <c r="H6" s="2" t="n"/>
+      <c r="I6" s="2" t="n"/>
+      <c r="J6" s="2" t="n"/>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>ИЗД</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>К/Т</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>ИЗД</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>К/Т</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>ИЗД</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>К/Т</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>ИЗД</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>К/Т</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="n"/>
+      <c r="T6" s="2" t="n"/>
+      <c r="U6" s="2" t="n"/>
+      <c r="V6" s="2" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Втулка</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Разработка Lenmiriot</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>Не требуется</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>35100 Втулка к хирургическому шаблону d=2.0 v.2</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>Версия 2</t>
+        </is>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>410</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>106</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>285</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="N7" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="O7" s="4" t="n">
+        <v>125</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <v>33</v>
+      </c>
+      <c r="R7" s="4" t="n">
+        <v>51</v>
+      </c>
+      <c r="S7" s="5" t="inlineStr"/>
+      <c r="T7" s="6" t="n"/>
+      <c r="U7" s="6" t="n"/>
+      <c r="V7" s="4" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n"/>
+      <c r="B8" s="2" t="n"/>
+      <c r="C8" s="2" t="n"/>
+      <c r="D8" s="2" t="n"/>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>Итого</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="n"/>
+      <c r="G8" s="2" t="n"/>
+      <c r="H8" s="2" t="n"/>
+      <c r="I8" s="7">
+        <f>SUM(I7:I7)</f>
+        <v/>
+      </c>
+      <c r="J8" s="7">
+        <f>SUM(J7:J7)</f>
+        <v/>
+      </c>
+      <c r="K8" s="7">
+        <f>SUM(K7:K7)</f>
+        <v/>
+      </c>
+      <c r="L8" s="7">
+        <f>SUM(L7:L7)</f>
+        <v/>
+      </c>
+      <c r="M8" s="7">
+        <f>SUM(M7:M7)</f>
+        <v/>
+      </c>
+      <c r="N8" s="7">
+        <f>SUM(N7:N7)</f>
+        <v/>
+      </c>
+      <c r="O8" s="7">
+        <f>SUM(O7:O7)</f>
+        <v/>
+      </c>
+      <c r="P8" s="7">
+        <f>SUM(P7:P7)</f>
+        <v/>
+      </c>
+      <c r="Q8" s="7">
+        <f>SUM(Q7:Q7)</f>
+        <v/>
+      </c>
+      <c r="R8" s="7">
+        <f>SUM(R7:R7)</f>
+        <v/>
+      </c>
+      <c r="S8" s="2" t="n"/>
+      <c r="T8" s="7">
+        <f>SUM(T7:T7)</f>
+        <v/>
+      </c>
+      <c r="U8" s="7">
+        <f>SUM(U7:U7)</f>
+        <v/>
+      </c>
+      <c r="V8" s="7">
+        <f>SUM(V7:V7)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="T4:T6"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="Q5:R5"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>